--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_18_20.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_18_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>597624.0587816703</v>
+        <v>594922.8421302134</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673425</v>
       </c>
     </row>
     <row r="9">
@@ -665,16 +665,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>12.83417464571001</v>
+        <v>221.0427070190019</v>
       </c>
       <c r="H2" t="n">
-        <v>220.7742444965156</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="I2" t="n">
         <v>115.3066195468971</v>
@@ -713,10 +713,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -735,19 +735,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>104.3766310120711</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
-        <v>138.4959576899237</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
         <v>194.8409875848768</v>
@@ -804,7 +804,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888209</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>68.0595553836731</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>243.2380598128296</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>338.829307727944</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>356.3265794398808</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>12.41899097776993</v>
+        <v>12.41899097776992</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>143.3066953660374</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1149531848473</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>383.6877278154314</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,13 +972,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -990,7 +990,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>97.33388804333227</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1020,28 +1020,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>4.360182258713721</v>
       </c>
       <c r="S6" t="n">
         <v>143.0237294698458</v>
       </c>
       <c r="T6" t="n">
-        <v>193.9455960238326</v>
+        <v>193.9455960238325</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8398728426018</v>
       </c>
       <c r="V6" t="n">
-        <v>184.2089779804434</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>165.4946697765326</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1066,16 +1066,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.6974299383169</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>150.7263422083602</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1.905236112643507</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1105,22 +1105,22 @@
         <v>201.4735595059546</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>222.4186055422208</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>228.9176563786573</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>9.819768578134708</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,19 +1133,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>286.2749829542732</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>363.5377921948941</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>8.90616225919158</v>
       </c>
       <c r="H10" t="n">
-        <v>36.15026794562775</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1379,16 +1379,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>410.4696069132659</v>
       </c>
       <c r="H11" t="n">
-        <v>50.69452960179953</v>
+        <v>222.6434959374205</v>
       </c>
       <c r="I11" t="n">
-        <v>24.1466220418456</v>
+        <v>24.14662204184555</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,19 +1418,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>98.88510599615213</v>
+        <v>98.88510599615211</v>
       </c>
       <c r="T11" t="n">
-        <v>201.9388203544489</v>
+        <v>201.9388203544492</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.959002459687</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1464,10 +1464,10 @@
         <v>134.757564313352</v>
       </c>
       <c r="H12" t="n">
-        <v>87.26058381812551</v>
+        <v>87.2605838181255</v>
       </c>
       <c r="I12" t="n">
-        <v>10.48847705530792</v>
+        <v>10.48847705530788</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,16 +1525,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>118.0940871474028</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>38.88827221657519</v>
+        <v>79.81330679905237</v>
       </c>
       <c r="S13" t="n">
         <v>186.2346889920369</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1667,7 +1667,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174139</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1768,7 +1768,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1777,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>19.91555826189006</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>102.1557845699812</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890377</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417123</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2005,10 +2005,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>103.1686991936234</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2017,10 +2017,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856654</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,19 +2047,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
-        <v>51.36569740310222</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238246</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2144,7 +2144,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784699</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2242,19 +2242,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>103.1686991936199</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>36.43062059490467</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695436</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,7 +2479,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2488,10 +2488,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>46.15319674220939</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2719,13 +2719,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>99.97427419833785</v>
       </c>
       <c r="G28" t="n">
-        <v>19.91555826189063</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2858,7 +2858,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560527</v>
       </c>
     </row>
     <row r="30">
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>133.3722917337061</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2959,16 +2959,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>59.66990246485158</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3083,7 +3083,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3187,13 +3187,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3202,7 +3202,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428179</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3250,7 +3250,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>180.9726497471654</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3433,13 +3433,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>103.1686991936194</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3484,7 +3484,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>229.2938944146485</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3670,16 +3670,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833785</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>210.1286019540773</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3901,7 +3901,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3910,13 +3910,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>27.02919805176131</v>
+        <v>99.97427419833745</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -4138,19 +4138,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>99.97427419833869</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4189,7 +4189,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>380.4820441686398</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="C2" t="n">
-        <v>380.4820441686398</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="D2" t="n">
-        <v>380.4820441686398</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="E2" t="n">
-        <v>380.4820441686398</v>
+        <v>634.167062227511</v>
       </c>
       <c r="F2" t="n">
-        <v>373.5365434194364</v>
+        <v>627.2215614783075</v>
       </c>
       <c r="G2" t="n">
-        <v>360.5727306459919</v>
+        <v>403.9460998429521</v>
       </c>
       <c r="H2" t="n">
         <v>137.5684432757741</v>
@@ -4328,22 +4328,22 @@
         <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917579</v>
+        <v>49.28269087917585</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052547</v>
+        <v>142.2640879052541</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515909</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030606</v>
+        <v>495.5981834030601</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991318</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358416</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4361,19 +4361,19 @@
         <v>900.5447187946889</v>
       </c>
       <c r="U2" t="n">
-        <v>646.8597007358178</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="V2" t="n">
-        <v>380.4820441686398</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="W2" t="n">
-        <v>380.4820441686398</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="X2" t="n">
-        <v>380.4820441686398</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="Y2" t="n">
-        <v>380.4820441686398</v>
+        <v>900.5447187946889</v>
       </c>
     </row>
     <row r="3">
@@ -4383,16 +4383,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>342.0846976543626</v>
+        <v>275.4624604776052</v>
       </c>
       <c r="C3" t="n">
-        <v>167.6316683732355</v>
+        <v>275.4624604776052</v>
       </c>
       <c r="D3" t="n">
-        <v>167.6316683732355</v>
+        <v>126.528050816354</v>
       </c>
       <c r="E3" t="n">
-        <v>167.6316683732355</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F3" t="n">
         <v>21.09711040012049</v>
@@ -4410,49 +4410,49 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957465</v>
+        <v>95.78113116957468</v>
       </c>
       <c r="L3" t="n">
-        <v>242.5255548298713</v>
+        <v>242.5255548298714</v>
       </c>
       <c r="M3" t="n">
-        <v>433.1262439263951</v>
+        <v>433.1262439263952</v>
       </c>
       <c r="N3" t="n">
-        <v>648.3904695545984</v>
+        <v>643.1802110290002</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560896</v>
+        <v>813.1187583557301</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789493</v>
+        <v>930.1763583891336</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>914.9606132485259</v>
+        <v>887.8833378166544</v>
       </c>
       <c r="T3" t="n">
-        <v>718.1515348799635</v>
+        <v>691.074259448092</v>
       </c>
       <c r="U3" t="n">
-        <v>718.1515348799635</v>
+        <v>691.074259448092</v>
       </c>
       <c r="V3" t="n">
-        <v>718.1515348799635</v>
+        <v>691.074259448092</v>
       </c>
       <c r="W3" t="n">
-        <v>718.1515348799635</v>
+        <v>691.074259448092</v>
       </c>
       <c r="X3" t="n">
-        <v>510.3000346744306</v>
+        <v>483.2227592425592</v>
       </c>
       <c r="Y3" t="n">
-        <v>510.3000346744306</v>
+        <v>275.4624604776052</v>
       </c>
     </row>
     <row r="4">
@@ -4462,46 +4462,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>204.8909145793414</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="C4" t="n">
-        <v>204.8909145793414</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D4" t="n">
-        <v>204.8909145793414</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E4" t="n">
-        <v>204.8909145793414</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F4" t="n">
-        <v>204.8909145793414</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G4" t="n">
-        <v>36.32155393434483</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H4" t="n">
-        <v>36.32155393434483</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I4" t="n">
-        <v>36.32155393434483</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J4" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287944</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551009</v>
+        <v>316.7083726551007</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375335</v>
+        <v>527.7368878375333</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227044</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075543</v>
+        <v>918.469937207554</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4510,28 +4510,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>926.0629918407075</v>
+        <v>986.1084943659507</v>
       </c>
       <c r="S4" t="n">
-        <v>926.0629918407075</v>
+        <v>779.3214597764621</v>
       </c>
       <c r="T4" t="n">
-        <v>926.0629918407075</v>
+        <v>553.8524235344764</v>
       </c>
       <c r="U4" t="n">
-        <v>680.3679819287584</v>
+        <v>287.4747669672984</v>
       </c>
       <c r="V4" t="n">
-        <v>425.6834937228715</v>
+        <v>287.4747669672984</v>
       </c>
       <c r="W4" t="n">
-        <v>425.6834937228715</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="X4" t="n">
-        <v>425.6834937228715</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="Y4" t="n">
-        <v>204.8909145793414</v>
+        <v>21.09711040012049</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>804.9357238441746</v>
+        <v>410.1107921235802</v>
       </c>
       <c r="C5" t="n">
-        <v>435.973206903763</v>
+        <v>410.1107921235802</v>
       </c>
       <c r="D5" t="n">
-        <v>435.973206903763</v>
+        <v>410.1107921235802</v>
       </c>
       <c r="E5" t="n">
-        <v>50.18495430551872</v>
+        <v>50.18495430551877</v>
       </c>
       <c r="F5" t="n">
-        <v>43.23945355631525</v>
+        <v>43.2394535563153</v>
       </c>
       <c r="G5" t="n">
-        <v>30.69501822523451</v>
+        <v>30.69501822523457</v>
       </c>
       <c r="H5" t="n">
-        <v>30.69501822523451</v>
+        <v>30.69501822523457</v>
       </c>
       <c r="I5" t="n">
-        <v>30.69501822523451</v>
+        <v>30.69501822523457</v>
       </c>
       <c r="J5" t="n">
-        <v>93.76641159275141</v>
+        <v>93.76641159275181</v>
       </c>
       <c r="K5" t="n">
-        <v>239.0325989245562</v>
+        <v>239.032598924557</v>
       </c>
       <c r="L5" t="n">
-        <v>456.1499114825635</v>
+        <v>456.1499114825647</v>
       </c>
       <c r="M5" t="n">
-        <v>729.4041931748866</v>
+        <v>729.4041931748877</v>
       </c>
       <c r="N5" t="n">
-        <v>1011.69382320238</v>
+        <v>1011.693823202382</v>
       </c>
       <c r="O5" t="n">
-        <v>1264.916654798414</v>
+        <v>1264.916654798416</v>
       </c>
       <c r="P5" t="n">
-        <v>1446.535482189411</v>
+        <v>1446.535482189414</v>
       </c>
       <c r="Q5" t="n">
-        <v>1534.750911261726</v>
+        <v>1534.750911261729</v>
       </c>
       <c r="R5" t="n">
-        <v>1534.750911261726</v>
+        <v>1534.750911261729</v>
       </c>
       <c r="S5" t="n">
-        <v>1534.750911261726</v>
+        <v>1389.996673518256</v>
       </c>
       <c r="T5" t="n">
-        <v>1534.750911261726</v>
+        <v>1389.996673518256</v>
       </c>
       <c r="U5" t="n">
-        <v>1534.750911261726</v>
+        <v>1136.345205654774</v>
       </c>
       <c r="V5" t="n">
-        <v>1534.750911261726</v>
+        <v>1136.345205654774</v>
       </c>
       <c r="W5" t="n">
-        <v>1534.750911261726</v>
+        <v>783.5765503846601</v>
       </c>
       <c r="X5" t="n">
-        <v>1534.750911261726</v>
+        <v>410.1107921235802</v>
       </c>
       <c r="Y5" t="n">
-        <v>1147.187549831997</v>
+        <v>410.1107921235802</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>424.4810444892294</v>
+        <v>351.6826054794766</v>
       </c>
       <c r="C6" t="n">
-        <v>424.4810444892294</v>
+        <v>177.2295761983496</v>
       </c>
       <c r="D6" t="n">
-        <v>275.5466348279781</v>
+        <v>177.2295761983496</v>
       </c>
       <c r="E6" t="n">
-        <v>275.5466348279781</v>
+        <v>177.2295761983496</v>
       </c>
       <c r="F6" t="n">
-        <v>129.0120768548631</v>
+        <v>30.69501822523457</v>
       </c>
       <c r="G6" t="n">
-        <v>129.0120768548631</v>
+        <v>30.69501822523457</v>
       </c>
       <c r="H6" t="n">
-        <v>30.69501822523451</v>
+        <v>30.69501822523457</v>
       </c>
       <c r="I6" t="n">
-        <v>30.69501822523451</v>
+        <v>30.69501822523457</v>
       </c>
       <c r="J6" t="n">
-        <v>49.44206107563434</v>
+        <v>174.2721860626393</v>
       </c>
       <c r="K6" t="n">
-        <v>159.6385680169449</v>
+        <v>284.46869300395</v>
       </c>
       <c r="L6" t="n">
-        <v>425.8680069697367</v>
+        <v>478.9640368353024</v>
       </c>
       <c r="M6" t="n">
-        <v>672.1917676404828</v>
+        <v>829.7791710122431</v>
       </c>
       <c r="N6" t="n">
-        <v>939.4436302127054</v>
+        <v>1097.031033584466</v>
       </c>
       <c r="O6" t="n">
-        <v>1319.294480749983</v>
+        <v>1319.294480749985</v>
       </c>
       <c r="P6" t="n">
-        <v>1478.347425948671</v>
+        <v>1478.347425948673</v>
       </c>
       <c r="Q6" t="n">
-        <v>1534.750911261726</v>
+        <v>1534.750911261729</v>
       </c>
       <c r="R6" t="n">
-        <v>1534.750911261726</v>
+        <v>1530.346686757977</v>
       </c>
       <c r="S6" t="n">
-        <v>1390.282497655821</v>
+        <v>1385.878273152072</v>
       </c>
       <c r="T6" t="n">
-        <v>1194.377855207505</v>
+        <v>1189.973630703756</v>
       </c>
       <c r="U6" t="n">
-        <v>1194.377855207505</v>
+        <v>961.8525470243608</v>
       </c>
       <c r="V6" t="n">
-        <v>1008.308180479784</v>
+        <v>726.7004387926181</v>
       </c>
       <c r="W6" t="n">
-        <v>1008.308180479784</v>
+        <v>559.5341056850094</v>
       </c>
       <c r="X6" t="n">
-        <v>800.4566802742513</v>
+        <v>351.6826054794766</v>
       </c>
       <c r="Y6" t="n">
-        <v>592.6963815092975</v>
+        <v>351.6826054794766</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>503.3662114348638</v>
+        <v>30.69501822523457</v>
       </c>
       <c r="C7" t="n">
-        <v>503.3662114348638</v>
+        <v>30.69501822523457</v>
       </c>
       <c r="D7" t="n">
-        <v>353.249572022528</v>
+        <v>30.69501822523457</v>
       </c>
       <c r="E7" t="n">
-        <v>353.249572022528</v>
+        <v>30.69501822523457</v>
       </c>
       <c r="F7" t="n">
-        <v>353.249572022528</v>
+        <v>30.69501822523457</v>
       </c>
       <c r="G7" t="n">
-        <v>184.8683296605918</v>
+        <v>30.69501822523457</v>
       </c>
       <c r="H7" t="n">
-        <v>32.61949914709664</v>
+        <v>30.69501822523457</v>
       </c>
       <c r="I7" t="n">
-        <v>32.61949914709664</v>
+        <v>30.69501822523457</v>
       </c>
       <c r="J7" t="n">
-        <v>30.69501822523451</v>
+        <v>30.69501822523457</v>
       </c>
       <c r="K7" t="n">
-        <v>157.4322756223268</v>
+        <v>157.432275622327</v>
       </c>
       <c r="L7" t="n">
-        <v>375.1387655830391</v>
+        <v>375.1387655830395</v>
       </c>
       <c r="M7" t="n">
-        <v>615.0688576388156</v>
+        <v>615.0688576388161</v>
       </c>
       <c r="N7" t="n">
-        <v>854.7285647974829</v>
+        <v>854.7285647974836</v>
       </c>
       <c r="O7" t="n">
         <v>1060.076798891673</v>
       </c>
       <c r="P7" t="n">
-        <v>1212.267005934022</v>
+        <v>1212.267005934023</v>
       </c>
       <c r="Q7" t="n">
-        <v>1234.200536495185</v>
+        <v>1234.200536495186</v>
       </c>
       <c r="R7" t="n">
-        <v>1234.200536495185</v>
+        <v>1234.200536495186</v>
       </c>
       <c r="S7" t="n">
-        <v>1030.691890529574</v>
+        <v>1030.691890529575</v>
       </c>
       <c r="T7" t="n">
-        <v>1030.691890529574</v>
+        <v>806.0266324061198</v>
       </c>
       <c r="U7" t="n">
-        <v>1030.691890529574</v>
+        <v>574.7966764680821</v>
       </c>
       <c r="V7" t="n">
-        <v>1030.691890529574</v>
+        <v>320.1121882621952</v>
       </c>
       <c r="W7" t="n">
-        <v>741.2747204926131</v>
+        <v>30.69501822523457</v>
       </c>
       <c r="X7" t="n">
-        <v>513.2851695945958</v>
+        <v>30.69501822523457</v>
       </c>
       <c r="Y7" t="n">
-        <v>503.3662114348638</v>
+        <v>30.69501822523457</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1445.965582893149</v>
+        <v>742.878294495355</v>
       </c>
       <c r="C8" t="n">
-        <v>1445.965582893149</v>
+        <v>373.9157775549434</v>
       </c>
       <c r="D8" t="n">
-        <v>1445.965582893149</v>
+        <v>373.9157775549434</v>
       </c>
       <c r="E8" t="n">
-        <v>1060.177330294905</v>
+        <v>373.9157775549434</v>
       </c>
       <c r="F8" t="n">
-        <v>771.0106808461439</v>
+        <v>366.9702768057399</v>
       </c>
       <c r="G8" t="n">
         <v>355.3059305704328</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816085</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V8" t="n">
-        <v>2562.339328400155</v>
+        <v>1852.996172847234</v>
       </c>
       <c r="W8" t="n">
-        <v>2209.570673130041</v>
+        <v>1500.22751757712</v>
       </c>
       <c r="X8" t="n">
-        <v>1836.104914868961</v>
+        <v>1133.017626471167</v>
       </c>
       <c r="Y8" t="n">
-        <v>1445.965582893149</v>
+        <v>742.878294495355</v>
       </c>
     </row>
     <row r="9">
@@ -4872,34 +4872,34 @@
         <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182518</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>168.0008189145199</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380227</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694943</v>
+        <v>932.4978103100998</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828714</v>
+        <v>1480.485115687206</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.79372942566</v>
+        <v>1867.770244284151</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601821</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>701.61807215585</v>
+        <v>60.24291006213602</v>
       </c>
       <c r="C10" t="n">
-        <v>532.6818892279431</v>
+        <v>60.24291006213602</v>
       </c>
       <c r="D10" t="n">
-        <v>382.5652498156073</v>
+        <v>60.24291006213602</v>
       </c>
       <c r="E10" t="n">
-        <v>234.6521562332142</v>
+        <v>60.24291006213602</v>
       </c>
       <c r="F10" t="n">
-        <v>87.76220873530386</v>
+        <v>60.24291006213602</v>
       </c>
       <c r="G10" t="n">
-        <v>87.76220873530386</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
@@ -4984,28 +4984,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S10" t="n">
-        <v>1439.817372234358</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T10" t="n">
-        <v>1439.817372234358</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U10" t="n">
-        <v>1439.817372234358</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="V10" t="n">
-        <v>1439.817372234358</v>
+        <v>570.4526592426267</v>
       </c>
       <c r="W10" t="n">
-        <v>1150.400202197397</v>
+        <v>281.0354892056661</v>
       </c>
       <c r="X10" t="n">
-        <v>922.4106512993801</v>
+        <v>281.0354892056661</v>
       </c>
       <c r="Y10" t="n">
-        <v>701.61807215585</v>
+        <v>60.24291006213602</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2091.752926282158</v>
+        <v>1485.490329133574</v>
       </c>
       <c r="C11" t="n">
-        <v>1722.790409341746</v>
+        <v>1485.490329133574</v>
       </c>
       <c r="D11" t="n">
-        <v>1364.524710734996</v>
+        <v>1127.224630526824</v>
       </c>
       <c r="E11" t="n">
-        <v>978.7364581367516</v>
+        <v>741.4363779285793</v>
       </c>
       <c r="F11" t="n">
-        <v>567.750553347144</v>
+        <v>741.4363779285793</v>
       </c>
       <c r="G11" t="n">
-        <v>153.1347887882895</v>
+        <v>326.8206133697249</v>
       </c>
       <c r="H11" t="n">
-        <v>101.9281932309163</v>
+        <v>101.9281932309162</v>
       </c>
       <c r="I11" t="n">
-        <v>77.53766591592073</v>
+        <v>77.53766591592077</v>
       </c>
       <c r="J11" t="n">
-        <v>304.4060796706899</v>
+        <v>304.406079670689</v>
       </c>
       <c r="K11" t="n">
-        <v>695.1615405656976</v>
+        <v>695.1615405656958</v>
       </c>
       <c r="L11" t="n">
-        <v>1216.830004625331</v>
+        <v>1216.830004625329</v>
       </c>
       <c r="M11" t="n">
-        <v>1828.956123087832</v>
+        <v>1828.956123087831</v>
       </c>
       <c r="N11" t="n">
-        <v>2455.600890484044</v>
+        <v>2455.600890484042</v>
       </c>
       <c r="O11" t="n">
-        <v>3033.988513535297</v>
+        <v>3033.988513535296</v>
       </c>
       <c r="P11" t="n">
         <v>3493.127967479995</v>
       </c>
       <c r="Q11" t="n">
-        <v>3789.749829464061</v>
+        <v>3789.749829464062</v>
       </c>
       <c r="R11" t="n">
-        <v>3876.883295796036</v>
+        <v>3876.883295796038</v>
       </c>
       <c r="S11" t="n">
-        <v>3776.999350345377</v>
+        <v>3776.999350345379</v>
       </c>
       <c r="T11" t="n">
-        <v>3573.020743926742</v>
+        <v>3573.020743926744</v>
       </c>
       <c r="U11" t="n">
-        <v>3573.020743926742</v>
+        <v>3319.526802048272</v>
       </c>
       <c r="V11" t="n">
-        <v>3241.957856583172</v>
+        <v>2988.463914704701</v>
       </c>
       <c r="W11" t="n">
-        <v>3241.957856583172</v>
+        <v>2635.695259434587</v>
       </c>
       <c r="X11" t="n">
-        <v>2868.492098322092</v>
+        <v>2262.229501173507</v>
       </c>
       <c r="Y11" t="n">
-        <v>2478.35276634628</v>
+        <v>1872.090169197696</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>618.1648558508402</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9274008453848</v>
+        <v>458.9274008453847</v>
       </c>
       <c r="F12" t="n">
         <v>312.3928428722697</v>
@@ -5115,31 +5115,31 @@
         <v>88.13208718390852</v>
       </c>
       <c r="I12" t="n">
-        <v>77.53766591592073</v>
+        <v>77.53766591592077</v>
       </c>
       <c r="J12" t="n">
-        <v>193.8410919870412</v>
+        <v>193.8410919870413</v>
       </c>
       <c r="K12" t="n">
-        <v>470.7769964046653</v>
+        <v>470.7769964046656</v>
       </c>
       <c r="L12" t="n">
-        <v>889.4740370626168</v>
+        <v>488.5008422034059</v>
       </c>
       <c r="M12" t="n">
-        <v>1397.430603019145</v>
+        <v>996.4574081599343</v>
       </c>
       <c r="N12" t="n">
-        <v>1735.206074881278</v>
+        <v>1532.266717861144</v>
       </c>
       <c r="O12" t="n">
-        <v>2203.147119213801</v>
+        <v>2000.207762193667</v>
       </c>
       <c r="P12" t="n">
-        <v>2559.377995458575</v>
+        <v>2356.438638438442</v>
       </c>
       <c r="Q12" t="n">
-        <v>2559.377995458575</v>
+        <v>2544.650348868987</v>
       </c>
       <c r="R12" t="n">
         <v>2559.377995458575</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>225.4507594983139</v>
+        <v>365.7608055583759</v>
       </c>
       <c r="C13" t="n">
-        <v>225.4507594983138</v>
+        <v>196.824622630469</v>
       </c>
       <c r="D13" t="n">
-        <v>225.4507594983138</v>
+        <v>77.53766591592077</v>
       </c>
       <c r="E13" t="n">
-        <v>77.53766591592073</v>
+        <v>77.53766591592077</v>
       </c>
       <c r="F13" t="n">
-        <v>77.53766591592073</v>
+        <v>77.53766591592077</v>
       </c>
       <c r="G13" t="n">
-        <v>77.53766591592073</v>
+        <v>77.53766591592077</v>
       </c>
       <c r="H13" t="n">
-        <v>77.53766591592073</v>
+        <v>77.53766591592077</v>
       </c>
       <c r="I13" t="n">
-        <v>77.53766591592073</v>
+        <v>77.53766591592077</v>
       </c>
       <c r="J13" t="n">
-        <v>136.8552218758648</v>
+        <v>136.8552218758649</v>
       </c>
       <c r="K13" t="n">
-        <v>364.1690246648143</v>
+        <v>364.1690246648146</v>
       </c>
       <c r="L13" t="n">
-        <v>710.5788654344808</v>
+        <v>710.5788654344811</v>
       </c>
       <c r="M13" t="n">
-        <v>1086.208595376939</v>
+        <v>1086.20859537694</v>
       </c>
       <c r="N13" t="n">
-        <v>1458.341306336947</v>
+        <v>1458.341306336948</v>
       </c>
       <c r="O13" t="n">
-        <v>1786.049800818664</v>
+        <v>1786.049800818665</v>
       </c>
       <c r="P13" t="n">
-        <v>2042.940349010722</v>
+        <v>2042.940349010723</v>
       </c>
       <c r="Q13" t="n">
-        <v>2137.362968742807</v>
+        <v>2137.362968742808</v>
       </c>
       <c r="R13" t="n">
-        <v>2098.081885695762</v>
+        <v>2056.743466925584</v>
       </c>
       <c r="S13" t="n">
-        <v>1909.966038229058</v>
+        <v>1868.62761945888</v>
       </c>
       <c r="T13" t="n">
-        <v>1689.074705663498</v>
+        <v>1647.73628689332</v>
       </c>
       <c r="U13" t="n">
-        <v>1399.983012612949</v>
+        <v>1358.644593842771</v>
       </c>
       <c r="V13" t="n">
-        <v>1145.298524407062</v>
+        <v>1103.960105636884</v>
       </c>
       <c r="W13" t="n">
-        <v>855.881354370101</v>
+        <v>814.5429355999233</v>
       </c>
       <c r="X13" t="n">
-        <v>627.8918034720837</v>
+        <v>586.553384701906</v>
       </c>
       <c r="Y13" t="n">
-        <v>407.0992243285535</v>
+        <v>365.7608055583759</v>
       </c>
     </row>
     <row r="14">
@@ -5264,55 +5264,55 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
         <v>3467.980956852888</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1501.8401750111</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>2129.438138565707</v>
+        <v>1700.311647517213</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876684</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>411.9631215597614</v>
+        <v>344.9174178121642</v>
       </c>
       <c r="D16" t="n">
-        <v>261.8464821474257</v>
+        <v>344.9174178121642</v>
       </c>
       <c r="E16" t="n">
-        <v>113.9333885650325</v>
+        <v>197.0043242297711</v>
       </c>
       <c r="F16" t="n">
-        <v>113.9333885650325</v>
+        <v>197.0043242297711</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>197.0043242297711</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614382</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.5477693179081</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5492,37 +5492,37 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F17" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
@@ -5534,28 +5534,28 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,28 +5586,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="K18" t="n">
-        <v>119.290296770379</v>
+        <v>429.5088224239598</v>
       </c>
       <c r="L18" t="n">
-        <v>119.290296770379</v>
+        <v>924.8344286397187</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1268.578514636217</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P18" t="n">
         <v>2319.799627685893</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>931.4710609784074</v>
+        <v>513.8536007400754</v>
       </c>
       <c r="C19" t="n">
-        <v>762.5348780505004</v>
+        <v>344.9174178121685</v>
       </c>
       <c r="D19" t="n">
-        <v>612.4182386381647</v>
+        <v>344.9174178121685</v>
       </c>
       <c r="E19" t="n">
-        <v>464.5051450557715</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578612</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578612</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000593</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797746</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S19" t="n">
-        <v>2395.078540748844</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2395.078540748844</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>2106.003314093042</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1851.318825887155</v>
+        <v>1433.701365648823</v>
       </c>
       <c r="W19" t="n">
-        <v>1561.901655850194</v>
+        <v>1144.284195611863</v>
       </c>
       <c r="X19" t="n">
-        <v>1333.912104952177</v>
+        <v>916.2946447138452</v>
       </c>
       <c r="Y19" t="n">
-        <v>1113.119525808647</v>
+        <v>695.5020655703152</v>
       </c>
     </row>
     <row r="20">
@@ -5744,52 +5744,52 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
         <v>3094.515198591808</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,28 +5823,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>119.290296770379</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>119.290296770379</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>119.290296770379</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
         <v>2319.799627685893</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>763.7541388327647</v>
+        <v>513.8536007400719</v>
       </c>
       <c r="C22" t="n">
-        <v>594.8179559048579</v>
+        <v>344.917417812165</v>
       </c>
       <c r="D22" t="n">
-        <v>444.7013164925221</v>
+        <v>344.917417812165</v>
       </c>
       <c r="E22" t="n">
-        <v>444.7013164925221</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F22" t="n">
-        <v>297.8113689946118</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G22" t="n">
-        <v>130.6152697094917</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138418</v>
       </c>
       <c r="Y22" t="n">
-        <v>945.4026036630045</v>
+        <v>695.5020655703116</v>
       </c>
     </row>
     <row r="23">
@@ -5981,28 +5981,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L24" t="n">
-        <v>427.7414352191925</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M24" t="n">
-        <v>1025.119922845744</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
-        <v>1652.717886400351</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2204.627616639638</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>869.6905094135295</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>700.7543264856226</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>550.637687073287</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S25" t="n">
-        <v>2333.297989183966</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2333.297989183966</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2044.222762528164</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1789.538274322277</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1500.121104285317</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1272.131553387299</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1051.338974243769</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6215,28 +6215,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6315,10 +6315,10 @@
         <v>691.1951506745238</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>1870.702844468417</v>
       </c>
       <c r="P27" t="n">
         <v>2283.159972732779</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876688</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597619</v>
+        <v>344.917417812164</v>
       </c>
       <c r="D28" t="n">
-        <v>261.8464821474262</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="E28" t="n">
-        <v>113.9333885650331</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="F28" t="n">
-        <v>113.9333885650331</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
         <v>93.81666304797187</v>
@@ -6388,7 +6388,7 @@
         <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138407</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="29">
@@ -6449,7 +6449,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6458,13 +6458,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332388</v>
@@ -6476,13 +6476,13 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6540,28 +6540,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>931.4710609784063</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C31" t="n">
-        <v>762.5348780504994</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>612.4182386381636</v>
+        <v>241.7297566303649</v>
       </c>
       <c r="E31" t="n">
-        <v>464.5051450557705</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6622,7 +6622,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
         <v>826.1405381797745</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1333.912104952176</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y31" t="n">
-        <v>1113.119525808646</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="32">
@@ -6689,19 +6689,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121644</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270444</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6859,13 +6859,13 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L34" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
         <v>1665.560112570817</v>
@@ -6874,7 +6874,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
         <v>2446.96308358026</v>
@@ -6898,10 +6898,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>961.4835393015903</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>740.6909601580605</v>
       </c>
     </row>
     <row r="35">
@@ -6935,22 +6935,22 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7011,28 +7011,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188009</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C37" t="n">
-        <v>402.724593490894</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>198.0274703142541</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7096,10 +7096,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7123,7 +7123,7 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
         <v>1688.385853854706</v>
@@ -7132,13 +7132,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925707</v>
+        <v>916.2946447138412</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490406</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
     <row r="38">
@@ -7175,19 +7175,19 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7248,16 +7248,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L39" t="n">
-        <v>119.290296770379</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M39" t="n">
         <v>716.6687843969308</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>809.0422355233313</v>
+        <v>513.8536007400709</v>
       </c>
       <c r="C40" t="n">
-        <v>640.1060525954244</v>
+        <v>344.917417812164</v>
       </c>
       <c r="D40" t="n">
-        <v>489.9894131830887</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="E40" t="n">
-        <v>489.9894131830887</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="F40" t="n">
-        <v>343.0994656851784</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7333,10 +7333,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y40" t="n">
-        <v>990.6907003535711</v>
+        <v>695.5020655703106</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7385,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7418,10 +7418,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7430,31 +7430,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349511</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N42" t="n">
-        <v>2148.04349261611</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400714</v>
+        <v>513.8536007400705</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121646</v>
+        <v>344.9174178121636</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121646</v>
+        <v>194.8007783998279</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121646</v>
+        <v>194.8007783998279</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121646</v>
+        <v>194.8007783998279</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7606,13 +7606,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
         <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703112</v>
+        <v>695.5020655703103</v>
       </c>
     </row>
     <row r="44">
@@ -7643,22 +7643,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7731,22 +7731,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188007</v>
+        <v>513.8536007400718</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121649</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7807,10 +7807,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7837,19 +7837,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533435</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925705</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490404</v>
+        <v>695.5020655703115</v>
       </c>
     </row>
   </sheetData>
@@ -8000,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418266</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8067,16 +8067,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>5.262887399594291</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>92.05878169167806</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>97.32166909127223</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>34.43939438637</v>
+        <v>34.43939438636983</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,22 +8292,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>72.45868194084812</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>105.5468419254487</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>159.1791953250084</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -8529,16 +8529,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>54.95314511566525</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>342.9044714621887</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>186.5911984019048</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>20.93778120154991</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23267,13 +23267,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>239.2829737375752</v>
+        <v>67.33400740195424</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23312,13 +23312,13 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.959002459687</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23413,16 +23413,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>30.52138587080952</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23434,7 +23434,7 @@
         <v>142.9518949665179</v>
       </c>
       <c r="I13" t="n">
-        <v>90.25352389927376</v>
+        <v>90.25352389927373</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>40.92503458247724</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23656,7 +23656,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>145.6085800303788</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>38.13892827624264</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856212</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23893,10 +23893,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>43.2652634529458</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>129.6605885985424</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>43.2652634529493</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>103.8640922513192</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016456</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24367,7 +24367,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>46.45968844823108</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24376,10 +24376,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24412,10 +24412,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>134.8730892594352</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24607,13 +24607,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459339</v>
       </c>
       <c r="G28" t="n">
-        <v>145.6085800303781</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>46.45968844823122</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24847,16 +24847,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>166.0397529241856</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25075,13 +25075,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194208</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25138,7 +25138,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>44.73700564187175</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25321,13 +25321,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>62.35543909864943</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25372,7 +25372,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>57.22910392194254</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25558,16 +25558,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>45.44677382459339</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25594,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>8.456051398017479</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25789,7 +25789,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25798,13 +25798,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>138.4949402405075</v>
+        <v>65.54986409393139</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26026,19 +26026,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459255</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>926715.546713217</v>
+        <v>926715.5467132174</v>
       </c>
     </row>
     <row r="6">
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>410520.8849321418</v>
+        <v>410520.8849321416</v>
       </c>
       <c r="C2" t="n">
-        <v>410520.8849321415</v>
+        <v>410520.8849321416</v>
       </c>
       <c r="D2" t="n">
         <v>410520.8849321417</v>
       </c>
       <c r="E2" t="n">
-        <v>366294.6221371983</v>
+        <v>366294.6221371982</v>
       </c>
       <c r="F2" t="n">
+        <v>403573.2998450033</v>
+      </c>
+      <c r="G2" t="n">
         <v>403573.2998450031</v>
-      </c>
-      <c r="G2" t="n">
-        <v>403573.2998450029</v>
       </c>
       <c r="H2" t="n">
         <v>403573.2998450031</v>
@@ -26338,7 +26338,7 @@
         <v>403573.2998450031</v>
       </c>
       <c r="K2" t="n">
-        <v>403573.2998450032</v>
+        <v>403573.2998450029</v>
       </c>
       <c r="L2" t="n">
         <v>403573.2998450031</v>
@@ -26350,7 +26350,7 @@
         <v>403573.299845003</v>
       </c>
       <c r="O2" t="n">
-        <v>403573.2998450031</v>
+        <v>403573.299845003</v>
       </c>
       <c r="P2" t="n">
         <v>403573.2998450031</v>
@@ -26366,19 +26366,19 @@
         <v>680087.9805911931</v>
       </c>
       <c r="C3" t="n">
-        <v>132804.2190657075</v>
+        <v>132804.2190657081</v>
       </c>
       <c r="D3" t="n">
-        <v>265413.0723929371</v>
+        <v>265413.0723929364</v>
       </c>
       <c r="E3" t="n">
-        <v>313577.1573545772</v>
+        <v>313577.1573545777</v>
       </c>
       <c r="F3" t="n">
-        <v>189308.2687704291</v>
+        <v>189308.2687704288</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911413</v>
+        <v>68999.15441911407</v>
       </c>
       <c r="K3" t="n">
-        <v>30877.42926417432</v>
+        <v>30877.42926417451</v>
       </c>
       <c r="L3" t="n">
-        <v>65018.34502049556</v>
+        <v>65018.3450204954</v>
       </c>
       <c r="M3" t="n">
-        <v>81897.4037127308</v>
+        <v>81897.40371273088</v>
       </c>
       <c r="N3" t="n">
-        <v>49839.57413202363</v>
+        <v>49839.57413202358</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26418,46 +26418,46 @@
         <v>252122.0652631775</v>
       </c>
       <c r="C4" t="n">
-        <v>216477.7990382058</v>
+        <v>216477.7990382056</v>
       </c>
       <c r="D4" t="n">
         <v>141542.8205525801</v>
       </c>
       <c r="E4" t="n">
-        <v>11671.55765715929</v>
+        <v>11671.55765715928</v>
       </c>
       <c r="F4" t="n">
-        <v>11776.97621680581</v>
+        <v>11776.97621680583</v>
       </c>
       <c r="G4" t="n">
-        <v>11776.97621680581</v>
+        <v>11776.97621680583</v>
       </c>
       <c r="H4" t="n">
-        <v>11776.97621680581</v>
+        <v>11776.97621680578</v>
       </c>
       <c r="I4" t="n">
+        <v>11776.97621680582</v>
+      </c>
+      <c r="J4" t="n">
+        <v>11776.97621680582</v>
+      </c>
+      <c r="K4" t="n">
         <v>11776.97621680586</v>
-      </c>
-      <c r="J4" t="n">
-        <v>11776.97621680583</v>
-      </c>
-      <c r="K4" t="n">
-        <v>11776.97621680582</v>
       </c>
       <c r="L4" t="n">
         <v>11776.97621680582</v>
       </c>
       <c r="M4" t="n">
-        <v>11776.97621680583</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="N4" t="n">
         <v>11776.97621680582</v>
       </c>
       <c r="O4" t="n">
+        <v>11776.97621680588</v>
+      </c>
+      <c r="P4" t="n">
         <v>11776.97621680582</v>
-      </c>
-      <c r="P4" t="n">
-        <v>11776.97621680583</v>
       </c>
     </row>
     <row r="5">
@@ -26470,13 +26470,13 @@
         <v>63047.80320426619</v>
       </c>
       <c r="C5" t="n">
-        <v>72593.65038667497</v>
+        <v>72593.65038667503</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>85137.48506738566</v>
+        <v>85137.4850673857</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-584736.9641264951</v>
+        <v>-584736.9641264952</v>
       </c>
       <c r="C6" t="n">
-        <v>-11354.78355844677</v>
+        <v>-11354.7835584472</v>
       </c>
       <c r="D6" t="n">
-        <v>-89372.78045322024</v>
+        <v>-89372.78045321952</v>
       </c>
       <c r="E6" t="n">
-        <v>-44091.57794192388</v>
+        <v>-44312.70925589915</v>
       </c>
       <c r="F6" t="n">
-        <v>101365.525033861</v>
+        <v>101330.7871084258</v>
       </c>
       <c r="G6" t="n">
-        <v>290673.79380429</v>
+        <v>290639.0558788542</v>
       </c>
       <c r="H6" t="n">
-        <v>290673.7938042902</v>
+        <v>290639.0558788546</v>
       </c>
       <c r="I6" t="n">
-        <v>290673.7938042901</v>
+        <v>290639.0558788546</v>
       </c>
       <c r="J6" t="n">
-        <v>221674.639385176</v>
+        <v>221639.9014597404</v>
       </c>
       <c r="K6" t="n">
-        <v>259796.364540116</v>
+        <v>259761.6266146798</v>
       </c>
       <c r="L6" t="n">
-        <v>225655.4487837945</v>
+        <v>225620.710858359</v>
       </c>
       <c r="M6" t="n">
-        <v>208776.3900915593</v>
+        <v>208741.6521661236</v>
       </c>
       <c r="N6" t="n">
-        <v>240834.2196722665</v>
+        <v>240799.4817468308</v>
       </c>
       <c r="O6" t="n">
-        <v>290673.7938042901</v>
+        <v>290639.0558788543</v>
       </c>
       <c r="P6" t="n">
-        <v>290673.7938042902</v>
+        <v>290639.0558788545</v>
       </c>
     </row>
   </sheetData>
@@ -26735,16 +26735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>717.3319511695752</v>
+        <v>717.3319511695757</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
-        <v>1202.24123721495</v>
+        <v>1202.241237214951</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26790,22 +26790,22 @@
         <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>383.6877278154314</v>
+        <v>383.6877278154321</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>969.2208239490091</v>
+        <v>969.2208239490095</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26957,28 +26957,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>103.2769374000969</v>
+        <v>103.2769374000974</v>
       </c>
       <c r="D3" t="n">
-        <v>216.7329409479639</v>
+        <v>216.7329409479634</v>
       </c>
       <c r="E3" t="n">
-        <v>268.1763450974111</v>
+        <v>268.1763450974115</v>
       </c>
       <c r="F3" t="n">
-        <v>165.7342631267236</v>
+        <v>165.7342631267234</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27012,16 +27012,16 @@
         <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>119.9738478139253</v>
+        <v>119.973847813926</v>
       </c>
       <c r="D4" t="n">
-        <v>256.8971042846073</v>
+        <v>256.8971042846067</v>
       </c>
       <c r="E4" t="n">
-        <v>328.6359918489703</v>
+        <v>328.6359918489707</v>
       </c>
       <c r="F4" t="n">
-        <v>203.4874641506393</v>
+        <v>203.4874641506391</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015064</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
-        <v>119.9738478139253</v>
+        <v>119.973847813926</v>
       </c>
       <c r="L4" t="n">
-        <v>256.8971042846073</v>
+        <v>256.8971042846067</v>
       </c>
       <c r="M4" t="n">
-        <v>328.6359918489703</v>
+        <v>328.6359918489707</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506393</v>
+        <v>203.4874641506391</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27258,16 +27258,16 @@
         <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
-        <v>119.9738478139253</v>
+        <v>119.973847813926</v>
       </c>
       <c r="L4" t="n">
-        <v>256.8971042846073</v>
+        <v>256.8971042846067</v>
       </c>
       <c r="M4" t="n">
-        <v>328.6359918489703</v>
+        <v>328.6359918489707</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506393</v>
+        <v>203.4874641506391</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27385,16 +27385,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>118.2164900707556</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>191.7914676267081</v>
       </c>
       <c r="H2" t="n">
-        <v>93.41938813275243</v>
+        <v>50.47975262776184</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27433,10 +27433,10 @@
         <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>64.03837846862876</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27455,28 +27455,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>53.2684494433298</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120976</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
-        <v>43.9218040015056</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,10 +27503,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>8.653977722275073</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27524,7 +27524,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27549,7 +27549,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
         <v>152.3821593358568</v>
@@ -27558,7 +27558,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>59.44504749999082</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>43.02057068984786</v>
+        <v>22.54475050117135</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>22.80911833508486</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>43.90453393553656</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>25.60379063238099</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27631,10 +27631,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>309.9416328899766</v>
+        <v>309.9416328899765</v>
       </c>
       <c r="I5" t="n">
-        <v>99.30025118863685</v>
+        <v>99.30025118863676</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>143.3066953660375</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>210.4722490968155</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1149531848473</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>2.550210840622185</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27692,13 +27692,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -27710,10 +27710,10 @@
         <v>135.8005767399402</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>97.33388804333225</v>
       </c>
       <c r="I6" t="n">
-        <v>36.27346476951728</v>
+        <v>36.27346476951724</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>4.360182258713792</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -27749,19 +27749,19 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8398728426018</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>48.59160916898182</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>86.20031338438702</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27777,7 +27777,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27786,16 +27786,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.6974299383169</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>150.7263422083601</v>
       </c>
       <c r="I7" t="n">
         <v>116.5499160015377</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1.905236112643436</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>119.1307056315184</v>
+        <v>119.1307056315183</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>222.4186055422208</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2484721153922</v>
+        <v>57.33081573673491</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>208.7648847739601</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,19 +27853,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>120.6010627874383</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>6.193308483574981</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,22 +28011,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>157.4004377856126</v>
       </c>
       <c r="H10" t="n">
-        <v>111.1012412095011</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28141,7 +28141,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>3.126388037344441e-13</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28387,7 +28387,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>-3.353794564184568e-13</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -28503,7 +28503,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>3.395446886618932e-12</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -28573,7 +28573,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>-3.296665500002851e-13</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28740,7 +28740,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>-1.012949724099599e-12</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28779,7 +28779,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>3.376499080331996e-12</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -28864,7 +28864,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>-2.638562217988532e-13</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -29086,7 +29086,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>9.426059932593489e-13</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29578,7 +29578,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
     </row>
     <row r="30">
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30694,7 +30694,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -31039,31 +31039,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H2" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J2" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L2" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459292</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986831</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O2" t="n">
-        <v>415.9250721658379</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P2" t="n">
         <v>354.9824263269073</v>
@@ -31075,7 +31075,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
@@ -31124,16 +31124,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K3" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M3" t="n">
         <v>334.6599825043656</v>
@@ -31142,25 +31142,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S3" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31200,16 +31200,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.845013171582789</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I4" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L4" t="n">
         <v>164.6271425440336</v>
@@ -31221,25 +31221,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P4" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919121</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715651</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.883746537365124</v>
+        <v>2.883746537365127</v>
       </c>
       <c r="H5" t="n">
-        <v>29.53316922579058</v>
+        <v>29.53316922579061</v>
       </c>
       <c r="I5" t="n">
         <v>111.1756383817691</v>
       </c>
       <c r="J5" t="n">
-        <v>244.7543826756934</v>
+        <v>244.7543826756936</v>
       </c>
       <c r="K5" t="n">
-        <v>366.8233736023592</v>
+        <v>366.8233736023595</v>
       </c>
       <c r="L5" t="n">
-        <v>455.0768316952472</v>
+        <v>455.0768316952476</v>
       </c>
       <c r="M5" t="n">
-        <v>506.3606591791142</v>
+        <v>506.3606591791146</v>
       </c>
       <c r="N5" t="n">
-        <v>514.5541040284029</v>
+        <v>514.5541040284033</v>
       </c>
       <c r="O5" t="n">
-        <v>485.8788493974785</v>
+        <v>485.8788493974788</v>
       </c>
       <c r="P5" t="n">
-        <v>414.6863567562769</v>
+        <v>414.6863567562772</v>
       </c>
       <c r="Q5" t="n">
-        <v>311.4121838868883</v>
+        <v>311.4121838868885</v>
       </c>
       <c r="R5" t="n">
-        <v>181.1461434277621</v>
+        <v>181.1461434277623</v>
       </c>
       <c r="S5" t="n">
-        <v>65.71337422020784</v>
+        <v>65.71337422020788</v>
       </c>
       <c r="T5" t="n">
-        <v>12.62360046731584</v>
+        <v>12.62360046731585</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2306997229892099</v>
+        <v>0.2306997229892101</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.542940423270407</v>
+        <v>1.542940423270408</v>
       </c>
       <c r="H6" t="n">
-        <v>14.9015561931642</v>
+        <v>14.90155619316421</v>
       </c>
       <c r="I6" t="n">
-        <v>53.12316808189779</v>
+        <v>53.12316808189784</v>
       </c>
       <c r="J6" t="n">
-        <v>145.7740335862625</v>
+        <v>145.7740335862626</v>
       </c>
       <c r="K6" t="n">
-        <v>249.1510419453797</v>
+        <v>249.1510419453799</v>
       </c>
       <c r="L6" t="n">
-        <v>335.0143230438663</v>
+        <v>335.0143230438665</v>
       </c>
       <c r="M6" t="n">
-        <v>390.9459133874184</v>
+        <v>390.9459133874187</v>
       </c>
       <c r="N6" t="n">
-        <v>401.2930884189117</v>
+        <v>401.293088418912</v>
       </c>
       <c r="O6" t="n">
-        <v>367.1047769348674</v>
+        <v>367.1047769348677</v>
       </c>
       <c r="P6" t="n">
-        <v>294.6339480190657</v>
+        <v>294.6339480190659</v>
       </c>
       <c r="Q6" t="n">
-        <v>196.9549915739558</v>
+        <v>196.954991573956</v>
       </c>
       <c r="R6" t="n">
-        <v>95.79765189392934</v>
+        <v>95.79765189392941</v>
       </c>
       <c r="S6" t="n">
-        <v>28.65944163399197</v>
+        <v>28.65944163399199</v>
       </c>
       <c r="T6" t="n">
-        <v>6.21913267098905</v>
+        <v>6.219132670989056</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1015092383730531</v>
+        <v>0.1015092383730532</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.293549420141857</v>
+        <v>1.293549420141858</v>
       </c>
       <c r="H7" t="n">
-        <v>11.50083029907942</v>
+        <v>11.50083029907943</v>
       </c>
       <c r="I7" t="n">
-        <v>38.90055892572057</v>
+        <v>38.90055892572061</v>
       </c>
       <c r="J7" t="n">
-        <v>91.45394400402927</v>
+        <v>91.45394400402934</v>
       </c>
       <c r="K7" t="n">
-        <v>150.2869235401175</v>
+        <v>150.2869235401176</v>
       </c>
       <c r="L7" t="n">
-        <v>192.3155201545448</v>
+        <v>192.315520154545</v>
       </c>
       <c r="M7" t="n">
-        <v>202.7697513773276</v>
+        <v>202.7697513773277</v>
       </c>
       <c r="N7" t="n">
-        <v>197.9483399022535</v>
+        <v>197.9483399022537</v>
       </c>
       <c r="O7" t="n">
-        <v>182.83733076696</v>
+        <v>182.8373307669601</v>
       </c>
       <c r="P7" t="n">
-        <v>156.448922596066</v>
+        <v>156.4489225960661</v>
       </c>
       <c r="Q7" t="n">
-        <v>108.3171246266058</v>
+        <v>108.3171246266059</v>
       </c>
       <c r="R7" t="n">
-        <v>58.16268574565111</v>
+        <v>58.16268574565115</v>
       </c>
       <c r="S7" t="n">
-        <v>22.54303853101762</v>
+        <v>22.54303853101764</v>
       </c>
       <c r="T7" t="n">
-        <v>5.526983886060659</v>
+        <v>5.526983886060663</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07055724109864681</v>
+        <v>0.07055724109864688</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.833130601869143</v>
+        <v>4.833130601869144</v>
       </c>
       <c r="H11" t="n">
-        <v>49.49729877639237</v>
+        <v>49.49729877639239</v>
       </c>
       <c r="I11" t="n">
-        <v>186.3292675285603</v>
+        <v>186.3292675285604</v>
       </c>
       <c r="J11" t="n">
-        <v>410.2059184203915</v>
+        <v>410.2059184203917</v>
       </c>
       <c r="K11" t="n">
-        <v>614.7923367975125</v>
+        <v>614.7923367975127</v>
       </c>
       <c r="L11" t="n">
-        <v>762.7042574544654</v>
+        <v>762.7042574544657</v>
       </c>
       <c r="M11" t="n">
-        <v>848.6554437954558</v>
+        <v>848.655443795456</v>
       </c>
       <c r="N11" t="n">
-        <v>862.3875761180165</v>
+        <v>862.3875761180168</v>
       </c>
       <c r="O11" t="n">
-        <v>814.3281336956802</v>
+        <v>814.3281336956804</v>
       </c>
       <c r="P11" t="n">
-        <v>695.0102219620356</v>
+        <v>695.0102219620359</v>
       </c>
       <c r="Q11" t="n">
-        <v>521.9237322825968</v>
+        <v>521.9237322825969</v>
       </c>
       <c r="R11" t="n">
-        <v>303.5991401696628</v>
+        <v>303.5991401696629</v>
       </c>
       <c r="S11" t="n">
         <v>110.1349635900932</v>
       </c>
       <c r="T11" t="n">
-        <v>21.15702920968218</v>
+        <v>21.15702920968219</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3866504481495314</v>
+        <v>0.3866504481495315</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.585952849858572</v>
+        <v>2.585952849858573</v>
       </c>
       <c r="H12" t="n">
-        <v>24.97486041837095</v>
+        <v>24.97486041837096</v>
       </c>
       <c r="I12" t="n">
-        <v>89.03390294469207</v>
+        <v>89.03390294469212</v>
       </c>
       <c r="J12" t="n">
-        <v>244.3158348193136</v>
+        <v>244.3158348193137</v>
       </c>
       <c r="K12" t="n">
-        <v>417.5746757598379</v>
+        <v>417.5746757598381</v>
       </c>
       <c r="L12" t="n">
-        <v>561.4806834747747</v>
+        <v>156.4572543240563</v>
       </c>
       <c r="M12" t="n">
-        <v>655.2214742821477</v>
+        <v>655.2214742821481</v>
       </c>
       <c r="N12" t="n">
-        <v>472.5290573986189</v>
+        <v>672.5632370340505</v>
       </c>
       <c r="O12" t="n">
-        <v>615.2639659924472</v>
+        <v>615.2639659924474</v>
       </c>
       <c r="P12" t="n">
-        <v>493.8035753383444</v>
+        <v>493.8035753383446</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>330.094612904754</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>160.5559146605174</v>
       </c>
       <c r="S12" t="n">
-        <v>48.03293999627652</v>
+        <v>48.03293999627653</v>
       </c>
       <c r="T12" t="n">
         <v>10.42320468868433</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1701284769643798</v>
+        <v>0.1701284769643799</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,46 +31908,46 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.167976001535156</v>
+        <v>2.167976001535157</v>
       </c>
       <c r="H13" t="n">
-        <v>19.27527754092167</v>
+        <v>19.27527754092168</v>
       </c>
       <c r="I13" t="n">
-        <v>65.19695102798453</v>
+        <v>65.19695102798455</v>
       </c>
       <c r="J13" t="n">
-        <v>153.2759033085355</v>
+        <v>153.2759033085356</v>
       </c>
       <c r="K13" t="n">
-        <v>251.8793936329026</v>
+        <v>251.8793936329027</v>
       </c>
       <c r="L13" t="n">
-        <v>322.3189048100541</v>
+        <v>322.3189048100542</v>
       </c>
       <c r="M13" t="n">
-        <v>339.8400926770062</v>
+        <v>339.8400926770064</v>
       </c>
       <c r="N13" t="n">
-        <v>331.7594548531027</v>
+        <v>331.7594548531029</v>
       </c>
       <c r="O13" t="n">
-        <v>306.4335533806238</v>
+        <v>306.4335533806239</v>
       </c>
       <c r="P13" t="n">
-        <v>262.2068429493063</v>
+        <v>262.2068429493065</v>
       </c>
       <c r="Q13" t="n">
         <v>181.5384268194575</v>
       </c>
       <c r="R13" t="n">
-        <v>97.48008457811707</v>
+        <v>97.48008457811711</v>
       </c>
       <c r="S13" t="n">
-        <v>37.78190904493538</v>
+        <v>37.7819090449354</v>
       </c>
       <c r="T13" t="n">
-        <v>9.263170188377481</v>
+        <v>9.263170188377485</v>
       </c>
       <c r="U13" t="n">
         <v>0.1182532364473723</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>726.7533607666135</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>539.0475940357379</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>163.5723821283055</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>489.35028240333</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>152.5685698206132</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>547.6926421044561</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32783,7 +32783,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
@@ -32792,25 +32792,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>528.7932908500043</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>485.927610870024</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33035,13 +33035,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>550.5977692975241</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
@@ -33260,31 +33260,31 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>216.857296338707</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,34 +33494,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>396.970088694367</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,16 +33731,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>592.1874941409601</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33749,13 +33749,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
@@ -33977,10 +33977,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>269.1634560719508</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -34138,7 +34138,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
         <v>981.2715114159425</v>
@@ -34205,16 +34205,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>360.3952288121461</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,16 +34223,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34451,25 +34451,25 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>461.1007071927452</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217709</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020922</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441512</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.43840481763047</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659562</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M3" t="n">
         <v>192.5259485823473</v>
       </c>
       <c r="N3" t="n">
-        <v>217.43861174566</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O3" t="n">
-        <v>263.7138800015061</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P3" t="n">
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649638</v>
+        <v>125.9385470877686</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34875,7 +34875,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496826</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>63.70847814900714</v>
+        <v>63.70847814900733</v>
       </c>
       <c r="K5" t="n">
-        <v>146.7335225573786</v>
+        <v>146.7335225573789</v>
       </c>
       <c r="L5" t="n">
-        <v>219.31041672526</v>
+        <v>219.3104167252603</v>
       </c>
       <c r="M5" t="n">
-        <v>276.0144259518415</v>
+        <v>276.0144259518419</v>
       </c>
       <c r="N5" t="n">
-        <v>285.141040431812</v>
+        <v>285.1410404318124</v>
       </c>
       <c r="O5" t="n">
-        <v>255.7806379757917</v>
+        <v>255.7806379757921</v>
       </c>
       <c r="P5" t="n">
-        <v>183.4533610010074</v>
+        <v>183.4533610010076</v>
       </c>
       <c r="Q5" t="n">
-        <v>89.10649401243879</v>
+        <v>89.10649401243901</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>18.93640691959578</v>
+        <v>145.0274422600047</v>
       </c>
       <c r="K6" t="n">
-        <v>111.3096029710207</v>
+        <v>111.3096029710209</v>
       </c>
       <c r="L6" t="n">
-        <v>268.9186252048402</v>
+        <v>196.4599432639923</v>
       </c>
       <c r="M6" t="n">
-        <v>248.8118794654001</v>
+        <v>354.3587213908492</v>
       </c>
       <c r="N6" t="n">
-        <v>269.9513763355784</v>
+        <v>269.9513763355787</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6877278154314</v>
+        <v>224.5085324904232</v>
       </c>
       <c r="P6" t="n">
-        <v>160.6595406047355</v>
+        <v>160.6595406047357</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.97321748793431</v>
+        <v>56.97321748793448</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>128.0174317142346</v>
+        <v>128.0174317142348</v>
       </c>
       <c r="L7" t="n">
-        <v>219.9055454148609</v>
+        <v>219.9055454148611</v>
       </c>
       <c r="M7" t="n">
-        <v>242.3536283391682</v>
+        <v>242.3536283391683</v>
       </c>
       <c r="N7" t="n">
-        <v>242.0805122814821</v>
+        <v>242.0805122814823</v>
       </c>
       <c r="O7" t="n">
-        <v>207.4224586809996</v>
+        <v>207.4224586809998</v>
       </c>
       <c r="P7" t="n">
-        <v>153.7274818609594</v>
+        <v>153.7274818609596</v>
       </c>
       <c r="Q7" t="n">
-        <v>22.15508137491146</v>
+        <v>22.15508137491155</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35249,16 +35249,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>117.9333660065826</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>553.5225306839452</v>
       </c>
       <c r="N9" t="n">
         <v>391.1970995928739</v>
@@ -35270,7 +35270,7 @@
         <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>229.1600138937052</v>
+        <v>229.1600138937054</v>
       </c>
       <c r="K11" t="n">
-        <v>394.7024857525319</v>
+        <v>394.7024857525321</v>
       </c>
       <c r="L11" t="n">
-        <v>526.9378424844781</v>
+        <v>526.9378424844786</v>
       </c>
       <c r="M11" t="n">
-        <v>618.3092105681831</v>
+        <v>618.3092105681833</v>
       </c>
       <c r="N11" t="n">
-        <v>632.9745125214256</v>
+        <v>632.9745125214258</v>
       </c>
       <c r="O11" t="n">
-        <v>584.2299222739935</v>
+        <v>584.2299222739937</v>
       </c>
       <c r="P11" t="n">
-        <v>463.7772262067661</v>
+        <v>463.7772262067663</v>
       </c>
       <c r="Q11" t="n">
-        <v>299.6180424081473</v>
+        <v>299.6180424081474</v>
       </c>
       <c r="R11" t="n">
-        <v>88.01360235553068</v>
+        <v>88.01360235553079</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>117.4782081526469</v>
+        <v>117.478208152647</v>
       </c>
       <c r="K12" t="n">
-        <v>279.7332367854789</v>
+        <v>279.7332367854791</v>
       </c>
       <c r="L12" t="n">
-        <v>422.9263036949005</v>
+        <v>17.90287454418211</v>
       </c>
       <c r="M12" t="n">
-        <v>513.0874403601294</v>
+        <v>513.0874403601297</v>
       </c>
       <c r="N12" t="n">
-        <v>341.1873453152855</v>
+        <v>541.2215249507173</v>
       </c>
       <c r="O12" t="n">
-        <v>472.6677215480028</v>
+        <v>472.667721548003</v>
       </c>
       <c r="P12" t="n">
-        <v>359.8291679240141</v>
+        <v>359.8291679240143</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>190.1128388187325</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>14.87641069655348</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.91672319186273</v>
+        <v>59.91672319186279</v>
       </c>
       <c r="K13" t="n">
-        <v>229.6099018070197</v>
+        <v>229.6099018070198</v>
       </c>
       <c r="L13" t="n">
-        <v>349.9089300703702</v>
+        <v>349.9089300703703</v>
       </c>
       <c r="M13" t="n">
-        <v>379.4239696388468</v>
+        <v>379.423969638847</v>
       </c>
       <c r="N13" t="n">
-        <v>375.8916272323313</v>
+        <v>375.8916272323314</v>
       </c>
       <c r="O13" t="n">
-        <v>331.0186812946635</v>
+        <v>331.0186812946636</v>
       </c>
       <c r="P13" t="n">
-        <v>259.4854022141998</v>
+        <v>259.4854022142</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.37638356776309</v>
+        <v>95.37638356776314</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>584.6193268445951</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>396.4513495912935</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,31 +35957,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>25.73094315394657</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>347.2162484813117</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>25.73094315394657</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>405.5586081824378</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -36440,25 +36440,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>386.659256927986</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>351.9532034556937</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36683,13 +36683,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>416.6233618831939</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
@@ -36908,31 +36908,31 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>90.01966967204031</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>254.8360547723487</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37379,16 +37379,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>453.6331143610859</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37397,13 +37397,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -37625,10 +37625,10 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>127.0294221499325</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37786,7 +37786,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37853,16 +37853,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>222.5537898377871</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,16 +37871,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38099,25 +38099,25 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>318.5044627483008</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
